--- a/Introduction-to-Data/L5-Analyze-Data/Misc/special-orders.xlsx
+++ b/Introduction-to-Data/L5-Analyze-Data/Misc/special-orders.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f586c6deb7520287/AIDA/L3/BooleanQuiz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L5-Analyze-Data/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E64B2-62DD-9046-9A39-4DFC3EE66BE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16290" windowHeight="8610"/>
+    <workbookView xWindow="15020" yWindow="840" windowWidth="16220" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="special orders" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="myfruit">'special orders'!$B$2:$C$12</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -115,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -199,17 +200,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -250,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,18 +252,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,9 +277,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,12 +383,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Fruit-style" pivot="0" count="3">
+    <tableStyle name="Fruit-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="Fruit-style 2" pivot="0" count="3">
+    <tableStyle name="Fruit-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -714,23 +701,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="18" customWidth="1"/>
-    <col min="2" max="5" width="16.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="12.28515625" style="9"/>
+    <col min="1" max="1" width="18.5" style="17" customWidth="1"/>
+    <col min="2" max="5" width="16.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="12.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -751,8 +738,8 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -768,11 +755,14 @@
         <f>B2+C2+D2</f>
         <v>9</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12" t="str">
+        <f>IF(OR(MAX(B2:D2)&gt;10,E2&lt;20),"Special Order","No")</f>
+        <v>Special Order</v>
+      </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -788,11 +778,14 @@
         <f t="shared" ref="E3:E12" si="0">B3+C3+D3</f>
         <v>20</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="str">
+        <f t="shared" ref="F3:F12" si="1">IF(OR(MAX(B3:D3)&gt;10,E3&lt;20),"Special Order","No")</f>
+        <v>No</v>
+      </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -808,11 +801,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -828,11 +824,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -848,11 +847,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -868,11 +870,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="4">
@@ -888,10 +893,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="F8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="4">
@@ -907,10 +915,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="4">
@@ -926,10 +937,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="F10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="4">
@@ -945,10 +959,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="7">
@@ -964,28 +981,31 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="F12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Special Order</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1"/>
